--- a/Documenti per la Partecipazione/04.Informazioni progetto IS.xlsx
+++ b/Documenti per la Partecipazione/04.Informazioni progetto IS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanobiddau/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanobiddau/Desktop/Università /III° Anno/Primo Semestre/Ingegneria del Software/Progetto/Repository/IT-Manager (Working)/Documenti per la Partecipazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A4DF9A-B039-9B4A-96C0-1C121FFDCC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E3A69-A25B-7B49-9E41-322737459C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progetto" sheetId="1" r:id="rId1"/>
@@ -272,16 +272,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="36" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="36" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="36" applyBorder="1" applyAlignment="1">
@@ -293,12 +298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="36" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -963,75 +963,75 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1064,72 +1064,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
